--- a/biology/Zoologie/Hemidactylus_bouvieri/Hemidactylus_bouvieri.xlsx
+++ b/biology/Zoologie/Hemidactylus_bouvieri/Hemidactylus_bouvieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemidactylus bouvieri est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemidactylus bouvieri est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des îles du Cap-Vert[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des îles du Cap-Vert.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 octobre 2012)[2], trois sous-espèces sont reconnues :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 octobre 2012), trois sous-espèces sont reconnues :
 Hemidactylus bouvieri boavistensis Boulenger, 1906 ;
 Hemidactylus bouvieri bouvieri (Bocourt, 1870) ;
 Hemidactylus bouvieri razoensis Gruber &amp; Schleich, 1982.</t>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Aimé Bouvier[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Aimé Bouvier.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été représentée sur un timbre du Cap-Vert en 1986.
 </t>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bocourt, 1870 : Description de quelques sauriens nouveaux originaires de l'Amérique méridionale. Nouvelles Archives du Muséum d'Histoire Naturelle de Paris, vol. 6, p. 11-18 (texte intégral).
 Boulenger, 1906 : Report on the reptiles collected by the late L. Fea in West Africa. Annali del Museo Civico di Storia Naturale di Genova, sér. 3, vol. 2, p. 196-216 (texte intégral).
